--- a/InputData/trans/RPEF/Retail Price Equivalent Factor.xlsx
+++ b/InputData/trans/RPEF/Retail Price Equivalent Factor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27203"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\RPEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39502BE2-C6DB-4BB4-A277-8DB7845D96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{39502BE2-C6DB-4BB4-A277-8DB7845D96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B66F1A80-4CF3-48FD-AD6A-3AF3AFD8DC3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,11 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,6 +39,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,13 +50,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
+    <t>RPEF Retail Price Equivalent Factor</t>
+  </si>
+  <si>
     <t>Sources:</t>
   </si>
   <si>
     <t>LDVs</t>
   </si>
   <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>Automobile Industry Retail Price Equivalent and Indirect Cost Multipliers</t>
+  </si>
+  <si>
+    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100AGJ1.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000025%5CP100AGJ1.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL</t>
+  </si>
+  <si>
     <t>HDVs</t>
+  </si>
+  <si>
+    <t>Heavy Duty Truck Retail Price Equivalent and Indirect Cost Multipliers</t>
+  </si>
+  <si>
+    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100XXR3.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000042%5CP100XXR3.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL#</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Retail Price Equivalent Factor (Dmnl)</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Freight</t>
   </si>
   <si>
     <t>aircraft</t>
@@ -65,36 +100,6 @@
   <si>
     <t>motorbikes</t>
   </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>RPEF Retail Price Equivalent Factor</t>
-  </si>
-  <si>
-    <t>Retail Price Equivalent Factor (Dmnl)</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t>Freight</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100AGJ1.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000025%5CP100AGJ1.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL</t>
-  </si>
-  <si>
-    <t>Automobile Industry Retail Price Equivalent and Indirect Cost Multipliers</t>
-  </si>
-  <si>
-    <t>Heavy Duty Truck Retail Price Equivalent and Indirect Cost Multipliers</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100XXR3.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000042%5CP100XXR3.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL#</t>
-  </si>
 </sst>
 </file>
 
@@ -107,7 +112,7 @@
     <numFmt numFmtId="165" formatCode="###0.00_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +348,14 @@
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="28">
@@ -689,7 +702,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -944,6 +957,7 @@
     <xf numFmtId="49" fontId="32" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -957,12 +971,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="153"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="154">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1031,11 +1045,11 @@
     <cellStyle name="Hed Top" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Hed Top - SECTION" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="Hed Top_3-new4" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hyperlink" xfId="153" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Input 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Linked Cell 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Neutral 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="73" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="Normal 11" xfId="74" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="Normal 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
@@ -1096,6 +1110,7 @@
     <cellStyle name="Source Superscript 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
     <cellStyle name="Source Text" xfId="131" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
     <cellStyle name="Source Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="State" xfId="133" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
     <cellStyle name="Superscript" xfId="134" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
     <cellStyle name="Table Data" xfId="135" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
@@ -1501,7 +1516,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1512,82 +1527,73 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="7" t="s">
-        <v>12</v>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>2009</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="7" t="s">
-        <v>14</v>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="7" t="s">
-        <v>12</v>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>2019</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="7" t="s">
-        <v>15</v>
+      <c r="B12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="7"/>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="https://nepis.epa.gov/Exe/ZyNET.exe/P100AGJ1.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000025%5CP100AGJ1.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL" xr:uid="{7948747E-EA11-44EB-9A73-A513F2F28CDF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1599,7 +1605,7 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C33:C34"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1610,13 +1616,13 @@
   <sheetData>
     <row r="1" spans="1:37" ht="45">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
@@ -1655,7 +1661,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>1.5</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>1.2</v>
@@ -1745,7 +1751,7 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1790,7 +1796,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1835,7 +1841,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1880,7 +1886,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1927,4 +1933,265 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
+    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B430D8-0BFE-40FF-9C04-535E11475326}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E65D253C-FE1B-46D6-BE0C-40E3E9687816}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4826D23D-5801-468A-8609-F60C7AFA890B}"/>
 </file>
--- a/InputData/trans/RPEF/Retail Price Equivalent Factor.xlsx
+++ b/InputData/trans/RPEF/Retail Price Equivalent Factor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\RPEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{39502BE2-C6DB-4BB4-A277-8DB7845D96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B66F1A80-4CF3-48FD-AD6A-3AF3AFD8DC3B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39502BE2-C6DB-4BB4-A277-8DB7845D96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,8 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,43 +45,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
-    <t>RPEF Retail Price Equivalent Factor</t>
-  </si>
-  <si>
     <t>Sources:</t>
   </si>
   <si>
     <t>LDVs</t>
   </si>
   <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>Automobile Industry Retail Price Equivalent and Indirect Cost Multipliers</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100AGJ1.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000025%5CP100AGJ1.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL</t>
-  </si>
-  <si>
     <t>HDVs</t>
-  </si>
-  <si>
-    <t>Heavy Duty Truck Retail Price Equivalent and Indirect Cost Multipliers</t>
-  </si>
-  <si>
-    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100XXR3.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000042%5CP100XXR3.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL#</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Retail Price Equivalent Factor (Dmnl)</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
-    <t>Freight</t>
   </si>
   <si>
     <t>aircraft</t>
@@ -100,6 +65,36 @@
   <si>
     <t>motorbikes</t>
   </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>RPEF Retail Price Equivalent Factor</t>
+  </si>
+  <si>
+    <t>Retail Price Equivalent Factor (Dmnl)</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100AGJ1.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000025%5CP100AGJ1.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL</t>
+  </si>
+  <si>
+    <t>Automobile Industry Retail Price Equivalent and Indirect Cost Multipliers</t>
+  </si>
+  <si>
+    <t>Heavy Duty Truck Retail Price Equivalent and Indirect Cost Multipliers</t>
+  </si>
+  <si>
+    <t>https://nepis.epa.gov/Exe/ZyNET.exe/P100XXR3.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000042%5CP100XXR3.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL#</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +107,7 @@
     <numFmt numFmtId="165" formatCode="###0.00_)"/>
     <numFmt numFmtId="166" formatCode="#,##0_)"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,14 +343,6 @@
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="28">
@@ -702,7 +689,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="154">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -957,7 +944,6 @@
     <xf numFmtId="49" fontId="32" fillId="0" borderId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -971,12 +957,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="153"/>
   </cellXfs>
-  <cellStyles count="154">
+  <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1045,11 +1031,11 @@
     <cellStyle name="Hed Top" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Hed Top - SECTION" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="Hed Top_3-new4" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Hyperlink" xfId="153" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Input 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="Linked Cell 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
     <cellStyle name="Neutral 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="73" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="Normal 11" xfId="74" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="Normal 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
@@ -1110,7 +1096,6 @@
     <cellStyle name="Source Superscript 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
     <cellStyle name="Source Text" xfId="131" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
     <cellStyle name="Source Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="State" xfId="133" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
     <cellStyle name="Superscript" xfId="134" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
     <cellStyle name="Table Data" xfId="135" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
@@ -1516,7 +1501,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1527,73 +1512,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>2009</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>2019</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>7</v>
+      <c r="B12" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="7"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://nepis.epa.gov/Exe/ZyNET.exe/P100AGJ1.TXT?ZyActionD=ZyDocument&amp;Client=EPA&amp;Index=2006+Thru+2010&amp;Docs=&amp;Query=&amp;Time=&amp;EndTime=&amp;SearchMethod=1&amp;TocRestrict=n&amp;Toc=&amp;TocEntry=&amp;QField=&amp;QFieldYear=&amp;QFieldMonth=&amp;QFieldDay=&amp;IntQFieldOp=0&amp;ExtQFieldOp=0&amp;XmlQuery=&amp;File=D%3A%5Czyfiles%5CIndex%20Data%5C06thru10%5CTxt%5C00000025%5CP100AGJ1.txt&amp;User=ANONYMOUS&amp;Password=anonymous&amp;SortMethod=h%7C-&amp;MaximumDocuments=1&amp;FuzzyDegree=0&amp;ImageQuality=r75g8/r75g8/x150y150g16/i425&amp;Display=hpfr&amp;DefSeekPage=x&amp;SearchBack=ZyActionL&amp;Back=ZyActionS&amp;BackDesc=Results%20page&amp;MaximumPages=1&amp;ZyEntry=1&amp;SeekPage=x&amp;ZyPURL" xr:uid="{7948747E-EA11-44EB-9A73-A513F2F28CDF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1605,7 +1599,7 @@
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C34" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1616,13 +1610,13 @@
   <sheetData>
     <row r="1" spans="1:37" ht="45">
       <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1"/>
@@ -1661,7 +1655,7 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1.5</v>
@@ -1706,7 +1700,7 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>1.2</v>
@@ -1751,7 +1745,7 @@
     </row>
     <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1796,7 +1790,7 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1841,7 +1835,7 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1886,7 +1880,7 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -1933,265 +1927,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
-    <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <xsd:import namespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="00484652-42e1-479e-92f4-fb0efddcdf60" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="eca5b831-c3dc-41cf-bd85-218b82cecb21" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c5b79d03-3bfd-4c46-9947-056a2403f6c9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1B430D8-0BFE-40FF-9C04-535E11475326}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E65D253C-FE1B-46D6-BE0C-40E3E9687816}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4826D23D-5801-468A-8609-F60C7AFA890B}"/>
 </file>